--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2443687.033096585</v>
+        <v>2442990.371891494</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>244.6165724260384</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>191.8306611942027</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>34.29800892690459</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>127.9433390150392</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,10 +904,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>71.21229122917212</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>319.2263958899268</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>74.07475062513807</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>71.21229122917221</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>358.992973665642</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.2005997690979</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532369</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.6985273296131</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>96.92479256856676</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>140.8409226320875</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>126.248592867808</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,13 +2013,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>151.7166795520842</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2055,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>186.810132212935</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>66.8164746675545</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2250,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>215.5859136845943</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>65.11354775191289</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2526,10 +2526,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>131.1351086408785</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026563</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>41.64823684846815</v>
       </c>
       <c r="W28" t="n">
-        <v>169.0752308425356</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>103.0642663662001</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>204.7584329846327</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3207,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>39.39633626821609</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>169.9835185437313</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855931</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T37" t="n">
-        <v>106.858786719141</v>
+        <v>226.4718576827707</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W40" t="n">
-        <v>249.8149114609785</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>113.5305703566138</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026582</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V43" t="n">
-        <v>32.14459287211983</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>119.6396103681137</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439324</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D46" t="n">
-        <v>105.5216215482644</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>2.738312485819149</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1401.914645400934</v>
+        <v>752.4011749543869</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.054319454638</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>1359.802102680043</v>
+        <v>82.02110724439891</v>
       </c>
       <c r="E2" t="n">
-        <v>1166.033758039434</v>
+        <v>60.08457143266051</v>
       </c>
       <c r="F2" t="n">
-        <v>740.9095762288341</v>
+        <v>39.00079366246481</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182827</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231756</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231756</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231756</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231756</v>
+        <v>880.244518351642</v>
       </c>
       <c r="L2" t="n">
-        <v>38.70213529231756</v>
+        <v>1338.611505491543</v>
       </c>
       <c r="M2" t="n">
-        <v>498.2899918885885</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="N2" t="n">
-        <v>977.2289161310183</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373448</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615878</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615878</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.739470489018</v>
+        <v>1577.617349742124</v>
       </c>
       <c r="W2" t="n">
-        <v>1830.739470489018</v>
+        <v>1181.226000042471</v>
       </c>
       <c r="X2" t="n">
-        <v>1419.019471656766</v>
+        <v>769.5060012102185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.72260565206</v>
+        <v>768.2091352055129</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.132000312404</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000798</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231756</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422941</v>
+        <v>46.14877825422934</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338205</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>410.5729931455378</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>889.5119173879676</v>
+        <v>343.3471304404868</v>
       </c>
       <c r="M3" t="n">
-        <v>1368.450841630397</v>
+        <v>822.2860546829158</v>
       </c>
       <c r="N3" t="n">
-        <v>1847.389765872827</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.2669720438872</v>
+        <v>858.7979166836011</v>
       </c>
       <c r="C4" t="n">
-        <v>282.2669720438872</v>
+        <v>686.8253535625171</v>
       </c>
       <c r="D4" t="n">
-        <v>282.2669720438872</v>
+        <v>686.8253535625171</v>
       </c>
       <c r="E4" t="n">
-        <v>282.2669720438872</v>
+        <v>520.6171477153706</v>
       </c>
       <c r="F4" t="n">
-        <v>282.2669720438872</v>
+        <v>348.755373489931</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438872</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647559</v>
+        <v>38.7021352923175</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223128</v>
+        <v>38.71266663274122</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167336</v>
+        <v>393.401987927162</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974128</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773452</v>
+        <v>1162.079293773449</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453215</v>
+        <v>1517.507422453212</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375116</v>
+        <v>1808.106634375113</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303051</v>
+        <v>1888.068151303048</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822186</v>
+        <v>1888.068151303048</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048086</v>
+        <v>1853.423697841528</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.40930754839</v>
+        <v>1573.239249341833</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564193</v>
+        <v>1291.527781949861</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289322</v>
+        <v>1291.527781949861</v>
       </c>
       <c r="X4" t="n">
-        <v>508.6097403541452</v>
+        <v>1048.963885395667</v>
       </c>
       <c r="Y4" t="n">
-        <v>282.2669720438872</v>
+        <v>1048.963885395667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>874.3078922751886</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.679347573484</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.679347573484</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.046023333888</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>965.1452933471885</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>541.8526725321888</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L8" t="n">
-        <v>1145.829295018124</v>
-      </c>
       <c r="M8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1755.374948669918</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>798.1543688531086</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>626.1818057320246</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5044,13 +5044,13 @@
         <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
         <v>2988.069926596601</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M12" t="n">
-        <v>964.4851292537592</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.971033901635</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>568.9456755096874</v>
+        <v>1117.179460960259</v>
       </c>
       <c r="C13" t="n">
-        <v>431.8764559848257</v>
+        <v>945.2068978391751</v>
       </c>
       <c r="D13" t="n">
-        <v>268.5596831115964</v>
+        <v>781.8901249659458</v>
       </c>
       <c r="E13" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X13" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.1116442217531</v>
+        <v>1307.345429672325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,22 +5278,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P14" t="n">
         <v>4541.493855905341</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>381.4468456473314</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L15" t="n">
-        <v>1218.245653730238</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.245653730238</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1013.511272808981</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>845.7703566842191</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357521</v>
+        <v>682.4535838109898</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>682.4535838109898</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>510.5918095855502</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>344.3348398797824</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1832.396244838396</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1557.543841010909</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.020009831305</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.677241521047</v>
+        <v>1017.742919805303</v>
       </c>
     </row>
     <row r="17">
@@ -5515,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="P18" t="n">
         <v>1828.971033901635</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>851.1024013564278</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>687.7856284831985</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>521.577422636052</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5703,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1876.844976779876</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.844976779876</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.844976779876</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W19" t="n">
-        <v>1601.992572952389</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1023.074964477512</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1081.002661362067</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1847.778530848907</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1847.778530848907</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1847.778530848907</v>
       </c>
       <c r="W22" t="n">
-        <v>1307.345429672325</v>
+        <v>1572.92612702142</v>
       </c>
       <c r="X22" t="n">
-        <v>1307.345429672325</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="Y22" t="n">
-        <v>1081.002661362067</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6071,13 +6071,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
         <v>730.647150085061</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.1138248592226</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="C25" t="n">
-        <v>540.1412617381386</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1412617381386</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>373.9330558909921</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1371.186458435741</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1128.622561881546</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.2797935712883</v>
+        <v>913.0255634586812</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6268,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>712.1625887178441</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C28" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6420,16 +6420,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1499.949357641905</v>
       </c>
       <c r="W28" t="n">
-        <v>1371.235222294363</v>
+        <v>1225.096953814418</v>
       </c>
       <c r="X28" t="n">
-        <v>1128.671325740168</v>
+        <v>982.5330572602236</v>
       </c>
       <c r="Y28" t="n">
-        <v>902.3285574299098</v>
+        <v>756.1902889499656</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>855.9588572096898</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C31" t="n">
-        <v>683.9862940886057</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.610421257139</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1935.271073483038</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1655.086624983343</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1373.375157591372</v>
+        <v>1578.530931541092</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.522753763885</v>
+        <v>1578.530931541092</v>
       </c>
       <c r="X31" t="n">
-        <v>855.9588572096898</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="Y31" t="n">
-        <v>855.9588572096898</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1125.509546729146</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>953.5369836080615</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>790.2202107348322</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>624.0120048876857</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>452.1502306622461</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>285.8932609564783</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0969924646327</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6891,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1650.502208469618</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>1650.502208469618</v>
       </c>
       <c r="W34" t="n">
-        <v>1542.018283751469</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="X34" t="n">
-        <v>1542.018283751469</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y34" t="n">
-        <v>1315.675515441211</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>456.2068044646721</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1171.715112440171</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2101.340160059448</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478506</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478506</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629318</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164568</v>
@@ -6970,16 +6970,16 @@
         <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7004,40 +7004,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L36" t="n">
-        <v>939.4897558901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>939.4897558901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>939.4897558901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>853.0186603771518</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>681.0460972560677</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>517.7293243828383</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828383</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573985</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573985</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655528</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7113,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T37" t="n">
-        <v>2174.777572415784</v>
+        <v>1883.821241133272</v>
       </c>
       <c r="U37" t="n">
-        <v>2174.777572415784</v>
+        <v>1603.636792633576</v>
       </c>
       <c r="V37" t="n">
-        <v>1893.066105023813</v>
+        <v>1321.925325241605</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.213701196326</v>
+        <v>1321.925325241605</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.649804642131</v>
+        <v>1079.36142868741</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>853.0186603771518</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="M39" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="N39" t="n">
-        <v>964.4851292537592</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O39" t="n">
-        <v>964.4851292537592</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>919.4582979645735</v>
+        <v>1041.687567438221</v>
       </c>
       <c r="C40" t="n">
-        <v>747.4857348434895</v>
+        <v>869.7150043171365</v>
       </c>
       <c r="D40" t="n">
-        <v>584.1689619702602</v>
+        <v>706.3982314439071</v>
       </c>
       <c r="E40" t="n">
-        <v>417.9607561231137</v>
+        <v>540.1900255967605</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>368.3282513713208</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655528</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655528</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M40" t="n">
         <v>1132.196759100495</v>
@@ -7350,34 +7350,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>1955.492679006433</v>
       </c>
       <c r="V40" t="n">
-        <v>1830.869225946121</v>
+        <v>1673.781211614462</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.530931541092</v>
+        <v>1398.928807786975</v>
       </c>
       <c r="X40" t="n">
-        <v>1335.967034986897</v>
+        <v>1156.36491123278</v>
       </c>
       <c r="Y40" t="n">
-        <v>1109.624266676639</v>
+        <v>1041.687567438221</v>
       </c>
     </row>
     <row r="41">
@@ -7393,64 +7393,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
@@ -7478,34 +7478,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G42" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I42" t="n">
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>971.931772215671</v>
+        <v>700.23428293608</v>
       </c>
       <c r="L42" t="n">
-        <v>971.931772215671</v>
+        <v>700.23428293608</v>
       </c>
       <c r="M42" t="n">
-        <v>971.931772215671</v>
+        <v>700.23428293608</v>
       </c>
       <c r="N42" t="n">
-        <v>971.931772215671</v>
+        <v>700.23428293608</v>
       </c>
       <c r="O42" t="n">
-        <v>971.931772215671</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>575.6239606180499</v>
+        <v>431.8764559848261</v>
       </c>
       <c r="C43" t="n">
-        <v>575.6239606180499</v>
+        <v>431.8764559848261</v>
       </c>
       <c r="D43" t="n">
-        <v>412.3071877448206</v>
+        <v>268.5596831115966</v>
       </c>
       <c r="E43" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115966</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115966</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J43" t="n">
         <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M43" t="n">
         <v>1132.196759100495</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751468</v>
       </c>
       <c r="V43" t="n">
-        <v>1509.548998022055</v>
+        <v>1260.306816359497</v>
       </c>
       <c r="W43" t="n">
-        <v>1234.696594194568</v>
+        <v>985.4544125320099</v>
       </c>
       <c r="X43" t="n">
-        <v>992.1326976403734</v>
+        <v>742.8905159778149</v>
       </c>
       <c r="Y43" t="n">
-        <v>765.7899293301155</v>
+        <v>622.0424246968919</v>
       </c>
     </row>
     <row r="44">
@@ -7630,64 +7630,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813277</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N44" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O44" t="n">
-        <v>3931.435236455013</v>
+        <v>3950.770911629318</v>
       </c>
       <c r="P44" t="n">
-        <v>4639.71451561294</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="Q44" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
@@ -7715,40 +7715,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M45" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N45" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O45" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.7245472657505</v>
+        <v>603.8002552472888</v>
       </c>
       <c r="C46" t="n">
-        <v>380.7519841446665</v>
+        <v>431.8276921262046</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5109192529752</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
         <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M46" t="n">
         <v>1132.196759100495</v>
@@ -7824,34 +7824,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1819.436760043266</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.725292651295</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1262.872888823808</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.308992269613</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.8905159778161</v>
+        <v>793.9662239593546</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487781</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>501.308999139594</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774833</v>
+        <v>521.2079540534005</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884156</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099936</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642008</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>116.0625930370882</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681991</v>
+        <v>48.27353409470065</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662975</v>
+        <v>506.8734716662967</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675112</v>
+        <v>505.1197193675104</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8078,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031171</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285978</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>204.8788014195786</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P6" t="n">
-        <v>458.854857777643</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,16 +8455,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150666</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8473,10 +8473,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>474.5348224639868</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>894.5611137164466</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,10 +8941,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086323</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>382.6486756511529</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>721.0851395833404</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9254,13 +9254,13 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>424.3574658298753</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>691.705325606697</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9719,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>493.0472488628395</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>248.2087549892667</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>386.8988393430042</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>593.7166556079103</v>
+        <v>502.2252835908839</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10837,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130277</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>426.1551116948253</v>
+        <v>466.4461461201186</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055974</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11153,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947568</v>
       </c>
       <c r="P42" t="n">
-        <v>501.4810380814832</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>262.4391237226448</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>54.56363491934506</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911681</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.55431016026009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>67.62133122010822</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.517383174839665</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>113.8896647208449</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.42647693110095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>54.095822083424</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>103.4363628223186</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>25.32004061176474</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>123.1507612730321</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.9687711483336</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>237.2461158695832</v>
       </c>
       <c r="W28" t="n">
-        <v>103.0286489466765</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>65.36943063985638</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>74.13591973341866</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>59.37454630891069</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>107.3990854709675</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.047167577218</v>
+        <v>14.43409661358845</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>22.28896832823358</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>110.5487702705417</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7497598459315</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.4397302590418</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>56.1619835962326</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>274.6442915288797</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>506550.6272774536</v>
+        <v>506550.6272774535</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535786.3562174102</v>
+        <v>535786.3562174101</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535786.3562174102</v>
+        <v>535786.3562174101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535786.3562174102</v>
+        <v>535786.3562174099</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>535786.3562174101</v>
+        <v>535786.3562174099</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535786.3562174102</v>
+        <v>535786.3562174101</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>567881.6013108838</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108842</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
         <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="H2" t="n">
         <v>547979.6430590109</v>
@@ -26337,25 +26337,25 @@
         <v>547979.6430590107</v>
       </c>
       <c r="J2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="P2" t="n">
         <v>547979.6430590112</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.6430590114</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547979.6430590111</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547979.6430590113</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547979.6430590114</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547979.6430590112</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547979.6430590107</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695917</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361173</v>
+        <v>23406.83367361199</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802892</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.6003570194</v>
+        <v>18646.60035701967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.623646525</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26432,7 +26432,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458318</v>
@@ -26447,19 +26447,19 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458317</v>
       </c>
       <c r="N4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458317</v>
       </c>
       <c r="O4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458317</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458317</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216135</v>
+        <v>63041.2228221613</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26484,16 +26484,16 @@
         <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.0621884297</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131469.0587726057</v>
+        <v>131469.0587726059</v>
       </c>
       <c r="C6" t="n">
-        <v>277162.1246105029</v>
+        <v>277162.1246105025</v>
       </c>
       <c r="D6" t="n">
         <v>300568.9582841143</v>
       </c>
       <c r="E6" t="n">
-        <v>153477.3702681087</v>
+        <v>153426.3396059245</v>
       </c>
       <c r="F6" t="n">
-        <v>369216.7268247493</v>
+        <v>369165.6961625651</v>
       </c>
       <c r="G6" t="n">
-        <v>369216.7268247492</v>
+        <v>369165.6961625651</v>
       </c>
       <c r="H6" t="n">
-        <v>369216.7268247494</v>
+        <v>369165.6961625651</v>
       </c>
       <c r="I6" t="n">
-        <v>369216.7268247492</v>
+        <v>369165.6961625649</v>
       </c>
       <c r="J6" t="n">
-        <v>242639.4582444605</v>
+        <v>242588.4275822763</v>
       </c>
       <c r="K6" t="n">
-        <v>350570.1264677305</v>
+        <v>350519.0958055455</v>
       </c>
       <c r="L6" t="n">
-        <v>369216.7268247495</v>
+        <v>369165.696162565</v>
       </c>
       <c r="M6" t="n">
-        <v>189152.8553695822</v>
+        <v>189101.8247073976</v>
       </c>
       <c r="N6" t="n">
-        <v>369216.7268247499</v>
+        <v>369165.6961625651</v>
       </c>
       <c r="O6" t="n">
-        <v>369216.7268247497</v>
+        <v>369165.6961625652</v>
       </c>
       <c r="P6" t="n">
-        <v>369216.7268247493</v>
+        <v>369165.6961625656</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.4511219616254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.4511219616254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>178.0151502607945</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>229.8865092594183</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,10 +27438,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>206.6079453694544</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>112.1949185736137</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>350.5048792244489</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>88.37640295400342</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>198.029129164074</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>350.5048792244488</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27912,7 +27912,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>42.2909236790166</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.06370925584707</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.64236734312206</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-2.078274617828299e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,19 +30696,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,22 +30747,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-2.216893335571513e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.387375541589505e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>462.996956706971</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780515</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>93.66335920375487</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539695</v>
+        <v>25.7584473804711</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.0106377175997151</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299744</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P6" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35175,17 +35175,17 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>452.1355886306535</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>873.218085502905</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,10 +35661,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>699.7421113697987</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>403.0144376163336</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>357.4788798574177</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>571.2015688936807</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37557,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570036</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>404.3842704899966</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="P42" t="n">
-        <v>479.7101968766545</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>225.0481643666207</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>19.53098502454859</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
